--- a/automateboringstuff/excel_invert_table.xlsx
+++ b/automateboringstuff/excel_invert_table.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>Product</t>
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>Qty</t>
   </si>
   <si>
     <t>Apples</t>
@@ -381,7 +384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,60 +392,81 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="n">
         <v>18</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>
@@ -456,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,22 +493,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -508,6 +532,29 @@
       </c>
       <c r="G2" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>
